--- a/other2/thomas/usaco/cowpatibility/cowpatibility.xlsx
+++ b/other2/thomas/usaco/cowpatibility/cowpatibility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\usaco\cowpatibility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\competitive-programming\other2\thomas\usaco\cowpatibility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2AD426-7331-4844-88AD-961127D07869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63F3AB5-BC9E-442A-B3E1-648647F4ADA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11670" xr2:uid="{50DB2A09-50DC-41B0-8A9C-AB2CEC05B35F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28783" windowHeight="11674" xr2:uid="{50DB2A09-50DC-41B0-8A9C-AB2CEC05B35F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>=2</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>=4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有多少个0？</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1575,15 +1579,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>460374</xdr:colOff>
+      <xdr:colOff>569231</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>229619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>646905</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58396</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1615,8 +1619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="460374" y="178593"/>
-          <a:ext cx="186531" cy="186531"/>
+          <a:off x="569231" y="229619"/>
+          <a:ext cx="186531" cy="187098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,15 +1632,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>450056</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13493</xdr:rowOff>
+      <xdr:colOff>565717</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>636587</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54882</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>21430</xdr:rowOff>
+      <xdr:rowOff>1019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1652,13 +1656,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1668,8 +1672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="450056" y="370681"/>
-          <a:ext cx="186531" cy="186531"/>
+          <a:off x="565717" y="408100"/>
+          <a:ext cx="186531" cy="188232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1681,15 +1685,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>559933</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>634205</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>49098</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26986</xdr:rowOff>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1705,13 +1709,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1721,8 +1725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="447674" y="554830"/>
-          <a:ext cx="186531" cy="186531"/>
+          <a:off x="559933" y="590550"/>
+          <a:ext cx="186531" cy="188231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,15 +1738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>453230</xdr:colOff>
+      <xdr:colOff>548480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>16668</xdr:rowOff>
+      <xdr:rowOff>3061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>639761</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>37645</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>24606</xdr:rowOff>
+      <xdr:rowOff>10999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1758,13 +1762,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1774,8 +1778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="453230" y="731043"/>
-          <a:ext cx="186531" cy="186531"/>
+          <a:off x="548480" y="778668"/>
+          <a:ext cx="186531" cy="188233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,13 +1815,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1864,13 +1868,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1917,13 +1921,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1970,13 +1974,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2023,13 +2027,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2040,6 +2044,490 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2494755" y="13493"/>
+          <a:ext cx="194469" cy="194469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133122</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>37305</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图形 32" descr="牛">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AD8CEB-9A24-46AB-A4C3-937C996A1F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4368345" y="957264"/>
+          <a:ext cx="186531" cy="187098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136411</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40594</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图形 38" descr="牛">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF3C8B3-2042-4B5B-833D-AE15EE4C36FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4089286" y="957264"/>
+          <a:ext cx="186531" cy="188232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>151037</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>55220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图形 39" descr="牛">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D87189-2C62-41C0-90B9-28A836DFC21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3821564" y="957264"/>
+          <a:ext cx="186531" cy="188231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156593</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60776</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图形 40" descr="牛">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70E14A9-0908-499C-9ABA-C78EC4A57BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3544772" y="957264"/>
+          <a:ext cx="186531" cy="188233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218393</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51138</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图形 41" descr="牛">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1D3A53-AD6C-4644-8145-A768E4EC9316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1548491" y="1119869"/>
+          <a:ext cx="186531" cy="188231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>230752</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63498</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图形 42" descr="牛">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7826686-6F04-4B1E-A825-EC26A42C93A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1207065" y="1119869"/>
+          <a:ext cx="186531" cy="188233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695664</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>192767</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图形 43" descr="冰淇淋">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6EE5DF-BF5B-4080-AB28-9B141FBBF4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695664" y="1309687"/>
+          <a:ext cx="194469" cy="194469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>107949</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>793</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="箭头: 下 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042FB747-A87E-463B-95AC-3806E9F89D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6288993" y="13542282"/>
+          <a:ext cx="120764" cy="164420"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28914</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223383</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图形 45" descr="冰淇淋">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6F0651-599A-4755-B3A4-0B3F8A00C605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3083718" y="1302884"/>
           <a:ext cx="194469" cy="194469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2351,22 +2839,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CFE877-B49E-4EAF-80EA-3D3CC872309E}">
   <dimension ref="B1:T96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.08203125" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" customWidth="1"/>
-    <col min="10" max="14" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="3.640625" customWidth="1"/>
+    <col min="3" max="7" width="4.640625" customWidth="1"/>
+    <col min="8" max="8" width="4.0703125" customWidth="1"/>
+    <col min="9" max="9" width="4.35546875" customWidth="1"/>
+    <col min="10" max="14" width="3.7109375" customWidth="1"/>
     <col min="16" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="18.55" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -2386,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -2406,7 +2894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2426,7 +2914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -2446,7 +2934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="J7" s="2">
         <v>4</v>
       </c>
@@ -2463,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -2492,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -2521,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -2550,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -2576,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -2602,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -2628,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -2654,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -2683,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -2709,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -2738,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>50</v>
       </c>
@@ -2764,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>60</v>
       </c>
@@ -2790,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>70</v>
       </c>
@@ -2816,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>80</v>
       </c>
@@ -2842,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>90</v>
       </c>
@@ -2868,7 +3356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="11">
         <v>1</v>
       </c>
@@ -2919,7 +3412,7 @@
       </c>
       <c r="T24" s="12"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>2</v>
       </c>
@@ -2972,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>3</v>
       </c>
@@ -3010,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>4</v>
       </c>
@@ -3048,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I28" s="1">
         <v>4</v>
       </c>
@@ -3068,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I29" s="1">
         <v>5</v>
       </c>
@@ -3088,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I30" s="1">
         <v>6</v>
       </c>
@@ -3108,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I31" s="1">
         <v>7</v>
       </c>
@@ -3128,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I32" s="1">
         <v>8</v>
       </c>
@@ -3148,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I33" s="1">
         <v>9</v>
       </c>
@@ -3168,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I34" s="1">
         <v>10</v>
       </c>
@@ -3188,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I35" s="1">
         <v>50</v>
       </c>
@@ -3208,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I36" s="1">
         <v>60</v>
       </c>
@@ -3228,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I37" s="1">
         <v>70</v>
       </c>
@@ -3248,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I38" s="1">
         <v>80</v>
       </c>
@@ -3268,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I39" s="1">
         <v>90</v>
       </c>
@@ -3288,7 +3781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="11">
         <v>1</v>
       </c>
@@ -3339,7 +3837,7 @@
       </c>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>2</v>
       </c>
@@ -3392,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
         <v>3</v>
       </c>
@@ -3430,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="1">
         <v>4</v>
       </c>
@@ -3468,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I45" s="1">
         <v>4</v>
       </c>
@@ -3488,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I46" s="1">
         <v>5</v>
       </c>
@@ -3508,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I47" s="1">
         <v>6</v>
       </c>
@@ -3528,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I48" s="1">
         <v>7</v>
       </c>
@@ -3548,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I49" s="1">
         <v>8</v>
       </c>
@@ -3568,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I50" s="1">
         <v>9</v>
       </c>
@@ -3588,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I51" s="1">
         <v>10</v>
       </c>
@@ -3608,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I52" s="1">
         <v>50</v>
       </c>
@@ -3628,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I53" s="1">
         <v>60</v>
       </c>
@@ -3648,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I54" s="1">
         <v>70</v>
       </c>
@@ -3668,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I55" s="1">
         <v>80</v>
       </c>
@@ -3688,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I56" s="1">
         <v>90</v>
       </c>
@@ -3708,7 +4206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B60" s="11">
         <v>1</v>
       </c>
@@ -3759,7 +4262,7 @@
       </c>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>2</v>
       </c>
@@ -3812,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B62" s="1">
         <v>3</v>
       </c>
@@ -3850,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>4</v>
       </c>
@@ -3888,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I64" s="1">
         <v>4</v>
       </c>
@@ -3908,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I65" s="1">
         <v>5</v>
       </c>
@@ -3928,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I66" s="1">
         <v>6</v>
       </c>
@@ -3948,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I67" s="1">
         <v>7</v>
       </c>
@@ -3968,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I68" s="1">
         <v>8</v>
       </c>
@@ -3988,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I69" s="1">
         <v>9</v>
       </c>
@@ -4008,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I70" s="1">
         <v>10</v>
       </c>
@@ -4028,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I71" s="1">
         <v>50</v>
       </c>
@@ -4048,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I72" s="1">
         <v>60</v>
       </c>
@@ -4068,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I73" s="1">
         <v>70</v>
       </c>
@@ -4088,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I74" s="1">
         <v>80</v>
       </c>
@@ -4108,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I75" s="1">
         <v>90</v>
       </c>
@@ -4128,7 +4631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B77" s="11">
         <v>1</v>
       </c>
@@ -4179,7 +4687,7 @@
       </c>
       <c r="T77" s="12"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B78" s="1">
         <v>2</v>
       </c>
@@ -4232,7 +4740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B79" s="1">
         <v>3</v>
       </c>
@@ -4270,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B80" s="1">
         <v>4</v>
       </c>
@@ -4308,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I81" s="1">
         <v>4</v>
       </c>
@@ -4328,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I82" s="1">
         <v>5</v>
       </c>
@@ -4348,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I83" s="1">
         <v>6</v>
       </c>
@@ -4368,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I84" s="1">
         <v>7</v>
       </c>
@@ -4388,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I85" s="1">
         <v>8</v>
       </c>
@@ -4408,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I86" s="1">
         <v>9</v>
       </c>
@@ -4428,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I87" s="1">
         <v>10</v>
       </c>
@@ -4448,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I88" s="1">
         <v>50</v>
       </c>
@@ -4468,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I89" s="1">
         <v>60</v>
       </c>
@@ -4488,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I90" s="1">
         <v>70</v>
       </c>
@@ -4508,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I91" s="1">
         <v>80</v>
       </c>
@@ -4528,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="I92" s="1">
         <v>90</v>
       </c>
@@ -4548,7 +5056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="T94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -4571,7 +5084,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="P96" s="8" t="s">
         <v>4</v>
       </c>
